--- a/gmap.xlsx
+++ b/gmap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -266,33 +266,6 @@
   </si>
   <si>
     <t>A message should indicate that you're offline but previously viewed maps and routes should still be accessible.</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>Satellite Imagery Accuracy</t>
-  </si>
-  <si>
-    <t>1. Zoom into a specific area with known landmarks. &lt;br&gt; 2. Compare satellite imagery with actual locations.</t>
-  </si>
-  <si>
-    <t>Location: "Eiffel Tower, Paris"</t>
-  </si>
-  <si>
-    <t>Satellite imagery should accurately depict the landmarks and surroundings.</t>
-  </si>
-  <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>Keyboard Shortcuts</t>
-  </si>
-  <si>
-    <t>1. Press "Ctrl + +" to zoom in. &lt;br&gt; 2. Press "Ctrl + -" to zoom out. &lt;br&gt; 3. Press "Ctrl + 0" to reset zoom.</t>
-  </si>
-  <si>
-    <t>Keyboard shortcuts should perform the respective actions on the map.</t>
   </si>
 </sst>
 </file>
@@ -634,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,46 +973,6 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
